--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_3_parsed_output/tokens_new_categories.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_3_parsed_output/tokens_new_categories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,30 +453,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> QUALITY</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
           <t>Organisms</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>OR</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
     </row>
